--- a/repswitch_V1L3.xlsx
+++ b/repswitch_V1L3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BB0281-B294-4615-9047-4201F1E34D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174531D4-3255-4886-BFFF-497AC0CCA702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="142">
   <si>
     <t>image</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>REPSWITCH1/PICTURE_340.png</t>
+  </si>
+  <si>
+    <t>REPSWITCH1/PICTURE_381.png</t>
+  </si>
+  <si>
+    <t>fresa</t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1097,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <charset val="161"/>
@@ -1107,6 +1106,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1135,7 +1141,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8787F5D1-9771-491E-8E74-576A2A580189}" name="Table22" displayName="Table22" ref="A1:Q409" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8787F5D1-9771-491E-8E74-576A2A580189}" name="Table22" displayName="Table22" ref="A1:Q409" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <autoFilter ref="A1:Q409" xr:uid="{8787F5D1-9771-491E-8E74-576A2A580189}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{6BD5E0D9-B26B-437A-AD4A-CDFBF927CBE6}" name="image" dataDxfId="16"/>
@@ -1450,10 +1456,13 @@
   <dimension ref="A1:Q409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q409"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -2079,10 +2088,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
@@ -2132,10 +2141,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1</v>
@@ -3525,10 +3534,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>1</v>
@@ -7445,10 +7454,10 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>1</v>
@@ -7498,10 +7507,10 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>2</v>
@@ -8740,10 +8749,10 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>2</v>
@@ -12301,10 +12310,10 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>1</v>
@@ -12354,10 +12363,10 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>1</v>
@@ -13543,10 +13552,10 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>1</v>
@@ -18236,10 +18245,10 @@
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C326" s="10" t="s">
         <v>2</v>
@@ -18289,10 +18298,10 @@
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>2</v>
@@ -19527,10 +19536,10 @@
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>2</v>

--- a/repswitch_V1L3.xlsx
+++ b/repswitch_V1L3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174531D4-3255-4886-BFFF-497AC0CCA702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375786E2-F6C2-4037-8E8B-97D8A81EB0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="600" windowWidth="12960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="11" r:id="rId1"/>
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:Q409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/repswitch_V1L3.xlsx
+++ b/repswitch_V1L3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375786E2-F6C2-4037-8E8B-97D8A81EB0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F92A83-9C3D-40EA-931C-F9B4CEC69682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="600" windowWidth="12960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="11" r:id="rId1"/>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>columna</t>
-  </si>
-  <si>
-    <t>trial</t>
   </si>
   <si>
     <t>psychopy_trial</t>
@@ -459,6 +456,9 @@
   </si>
   <si>
     <t>fresa</t>
+  </si>
+  <si>
+    <t>trial_no</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1158,7 @@
     <tableColumn id="9" xr3:uid="{54670491-4F52-4319-A8DB-9E639C7034D3}" name="stimulus" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{ABABDC7D-0AAB-43AE-AF55-42A05287DF04}" name="baseline" dataDxfId="4"/>
     <tableColumn id="11" xr3:uid="{2876EE2B-49D4-4D34-815C-C176BE28AC46}" name="baseline_condition" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{C6F5B395-3E61-4D61-B630-F7BB29A0B747}" name="trial" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{C6F5B395-3E61-4D61-B630-F7BB29A0B747}" name="trial_no" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{952A00FA-A4FC-4852-847B-F0A801A7C712}" name="psychopy_trial" dataDxfId="1"/>
     <tableColumn id="16" xr3:uid="{F309D8C1-D4A5-4C5B-8331-08691A6F8A8E}" name="Column1" dataDxfId="0"/>
   </tableColumns>
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:Q409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,36 +1490,36 @@
         <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="O1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="Q1" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>57</v>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M2" s="8">
         <v>0</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>2</v>
@@ -1725,10 +1725,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>1</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>56</v>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -1880,10 +1880,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1</v>
@@ -1931,10 +1931,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>2</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
@@ -2141,10 +2141,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1</v>
@@ -2243,10 +2243,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2</v>
@@ -2294,10 +2294,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2</v>
@@ -2449,10 +2449,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
@@ -2606,10 +2606,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>1</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>2</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>2</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>1</v>
@@ -2810,10 +2810,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>2</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2</v>
@@ -2914,10 +2914,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2</v>
@@ -2965,10 +2965,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>1</v>
@@ -3016,10 +3016,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
@@ -3069,10 +3069,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>2</v>
@@ -3120,10 +3120,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2</v>
@@ -3171,10 +3171,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>1</v>
@@ -3222,10 +3222,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>1</v>
@@ -3275,10 +3275,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>1</v>
@@ -3328,10 +3328,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2</v>
@@ -3379,10 +3379,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2</v>
@@ -3432,10 +3432,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>1</v>
@@ -3483,10 +3483,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>2</v>
@@ -3534,10 +3534,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>1</v>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>2</v>
@@ -3636,10 +3636,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>1</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>1</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>2</v>
@@ -3791,10 +3791,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>1</v>
@@ -3844,10 +3844,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>1</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>1</v>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>1</v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="23" t="s">
         <v>54</v>
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M52" s="42">
         <v>0</v>
@@ -4150,10 +4150,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>2</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>2</v>
@@ -4254,10 +4254,10 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>1</v>
@@ -4305,10 +4305,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>1</v>
@@ -4356,10 +4356,10 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>1</v>
@@ -4409,10 +4409,10 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>2</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>53</v>
@@ -4493,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M59" s="5">
         <v>0</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>2</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>1</v>
@@ -4613,10 +4613,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>2</v>
@@ -4664,10 +4664,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>1</v>
@@ -4717,10 +4717,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>1</v>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>1</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2</v>
@@ -4870,10 +4870,10 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>1</v>
@@ -4923,10 +4923,10 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>1</v>
@@ -4974,10 +4974,10 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>1</v>
@@ -5025,10 +5025,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2</v>
@@ -5076,10 +5076,10 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>1</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>55</v>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M72" s="10">
         <v>0</v>
@@ -5178,10 +5178,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>2</v>
@@ -5231,10 +5231,10 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>2</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>1</v>
@@ -5333,10 +5333,10 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2</v>
@@ -5386,10 +5386,10 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>2</v>
@@ -5437,10 +5437,10 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>2</v>
@@ -5490,10 +5490,10 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>1</v>
@@ -5541,10 +5541,10 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>2</v>
@@ -5594,10 +5594,10 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>2</v>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>2</v>
@@ -5698,10 +5698,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>1</v>
@@ -5749,10 +5749,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>2</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>1</v>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>1</v>
@@ -5904,10 +5904,10 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>1</v>
@@ -5955,10 +5955,10 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>2</v>
@@ -6006,10 +6006,10 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>1</v>
@@ -6057,10 +6057,10 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>2</v>
@@ -6110,10 +6110,10 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>1</v>
@@ -6161,10 +6161,10 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>2</v>
@@ -6212,10 +6212,10 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>1</v>
@@ -6263,10 +6263,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>1</v>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>1</v>
@@ -6367,10 +6367,10 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>2</v>
@@ -6418,10 +6418,10 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>1</v>
@@ -6471,10 +6471,10 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>1</v>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>2</v>
@@ -6575,10 +6575,10 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>2</v>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>2</v>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B102" s="20" t="s">
         <v>52</v>
@@ -6710,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M102" s="10">
         <v>0</v>
@@ -6728,10 +6728,10 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="21" t="s">
         <v>137</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>138</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>2</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>2</v>
@@ -6830,10 +6830,10 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>1</v>
@@ -6881,10 +6881,10 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>1</v>
@@ -6934,10 +6934,10 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>1</v>
@@ -6985,10 +6985,10 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>2</v>
@@ -7038,10 +7038,10 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>1</v>
@@ -7091,10 +7091,10 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>1</v>
@@ -7142,10 +7142,10 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>2</v>
@@ -7193,10 +7193,10 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>1</v>
@@ -7246,10 +7246,10 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>2</v>
@@ -7297,10 +7297,10 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>2</v>
@@ -7350,10 +7350,10 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>2</v>
@@ -7403,10 +7403,10 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>1</v>
@@ -7454,10 +7454,10 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>1</v>
@@ -7507,10 +7507,10 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>2</v>
@@ -7558,10 +7558,10 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>2</v>
@@ -7609,10 +7609,10 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>1</v>
@@ -7660,10 +7660,10 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>2</v>
@@ -7711,10 +7711,10 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>2</v>
@@ -7762,10 +7762,10 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>1</v>
@@ -7815,10 +7815,10 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>2</v>
@@ -7868,10 +7868,10 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>2</v>
@@ -7919,10 +7919,10 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>2</v>
@@ -7972,10 +7972,10 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>1</v>
@@ -8023,10 +8023,10 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>2</v>
@@ -8074,10 +8074,10 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>2</v>
@@ -8127,10 +8127,10 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>2</v>
@@ -8178,10 +8178,10 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>1</v>
@@ -8231,10 +8231,10 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>2</v>
@@ -8284,10 +8284,10 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>2</v>
@@ -8335,10 +8335,10 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>2</v>
@@ -8386,7 +8386,7 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B135" s="20" t="s">
         <v>56</v>
@@ -8419,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M135" s="5">
         <v>0</v>
@@ -8437,10 +8437,10 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>2</v>
@@ -8490,10 +8490,10 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>2</v>
@@ -8543,10 +8543,10 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>1</v>
@@ -8594,10 +8594,10 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>1</v>
@@ -8645,10 +8645,10 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>1</v>
@@ -8698,10 +8698,10 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>2</v>
@@ -8749,10 +8749,10 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>2</v>
@@ -8800,10 +8800,10 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>2</v>
@@ -8853,10 +8853,10 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>1</v>
@@ -8904,10 +8904,10 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>1</v>
@@ -8955,10 +8955,10 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>1</v>
@@ -9006,10 +9006,10 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>2</v>
@@ -9057,10 +9057,10 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>1</v>
@@ -9110,10 +9110,10 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>1</v>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B150" s="20" t="s">
         <v>55</v>
@@ -9194,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M150" s="10">
         <v>0</v>
@@ -9212,10 +9212,10 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>1</v>
@@ -9263,10 +9263,10 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>1</v>
@@ -9316,10 +9316,10 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>2</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B154" s="23" t="s">
         <v>57</v>
@@ -9400,7 +9400,7 @@
         <v>1</v>
       </c>
       <c r="L154" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M154" s="18">
         <v>0</v>
@@ -9418,10 +9418,10 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>2</v>
@@ -9469,10 +9469,10 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>1</v>
@@ -9520,10 +9520,10 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>1</v>
@@ -9571,10 +9571,10 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>1</v>
@@ -9624,10 +9624,10 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>2</v>
@@ -9675,10 +9675,10 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>2</v>
@@ -9728,10 +9728,10 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>2</v>
@@ -9781,10 +9781,10 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>1</v>
@@ -9832,10 +9832,10 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>2</v>
@@ -9883,10 +9883,10 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C164" s="10" t="s">
         <v>1</v>
@@ -9936,10 +9936,10 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>1</v>
@@ -9987,10 +9987,10 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>1</v>
@@ -10038,10 +10038,10 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>2</v>
@@ -10091,10 +10091,10 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C168" s="10" t="s">
         <v>1</v>
@@ -10144,10 +10144,10 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>1</v>
@@ -10195,10 +10195,10 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>1</v>
@@ -10248,10 +10248,10 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>2</v>
@@ -10299,10 +10299,10 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>1</v>
@@ -10350,10 +10350,10 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>2</v>
@@ -10401,10 +10401,10 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C174" s="10" t="s">
         <v>2</v>
@@ -10452,10 +10452,10 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>2</v>
@@ -10503,10 +10503,10 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C176" s="10" t="s">
         <v>1</v>
@@ -10554,10 +10554,10 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>2</v>
@@ -10607,10 +10607,10 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C178" s="10" t="s">
         <v>2</v>
@@ -10658,10 +10658,10 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>2</v>
@@ -10711,7 +10711,7 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B180" s="20" t="s">
         <v>52</v>
@@ -10744,7 +10744,7 @@
         <v>1</v>
       </c>
       <c r="L180" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M180" s="10">
         <v>0</v>
@@ -10762,10 +10762,10 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>1</v>
@@ -10815,10 +10815,10 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C182" s="10" t="s">
         <v>2</v>
@@ -10866,10 +10866,10 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>2</v>
@@ -10917,10 +10917,10 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C184" s="10" t="s">
         <v>2</v>
@@ -10970,10 +10970,10 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>1</v>
@@ -11021,10 +11021,10 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C186" s="10" t="s">
         <v>2</v>
@@ -11072,10 +11072,10 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>1</v>
@@ -11125,10 +11125,10 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C188" s="10" t="s">
         <v>1</v>
@@ -11176,10 +11176,10 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>1</v>
@@ -11227,10 +11227,10 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C190" s="10" t="s">
         <v>2</v>
@@ -11278,10 +11278,10 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>1</v>
@@ -11329,10 +11329,10 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C192" s="10" t="s">
         <v>2</v>
@@ -11382,10 +11382,10 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>1</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B194" s="20" t="s">
         <v>53</v>
@@ -11466,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="L194" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M194" s="10">
         <v>0</v>
@@ -11484,10 +11484,10 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>1</v>
@@ -11535,10 +11535,10 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C196" s="10" t="s">
         <v>1</v>
@@ -11588,10 +11588,10 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>1</v>
@@ -11639,10 +11639,10 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C198" s="10" t="s">
         <v>2</v>
@@ -11692,10 +11692,10 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>1</v>
@@ -11743,10 +11743,10 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>1</v>
@@ -11796,10 +11796,10 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>2</v>
@@ -11847,7 +11847,7 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B202" s="20" t="s">
         <v>54</v>
@@ -11880,7 +11880,7 @@
         <v>1</v>
       </c>
       <c r="L202" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M202" s="10">
         <v>0</v>
@@ -11898,10 +11898,10 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>2</v>
@@ -11949,10 +11949,10 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C204" s="10" t="s">
         <v>2</v>
@@ -12002,10 +12002,10 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B205" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="B205" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="C205" s="17" t="s">
         <v>2</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B206" s="20" t="s">
         <v>52</v>
@@ -12086,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="L206" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M206" s="14">
         <v>0</v>
@@ -12104,7 +12104,7 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B207" s="20" t="s">
         <v>53</v>
@@ -12137,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="L207" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M207" s="5">
         <v>0</v>
@@ -12155,10 +12155,10 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>1</v>
@@ -12208,10 +12208,10 @@
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>1</v>
@@ -12259,10 +12259,10 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>2</v>
@@ -12310,10 +12310,10 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>1</v>
@@ -12363,10 +12363,10 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>1</v>
@@ -12414,10 +12414,10 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>2</v>
@@ -12467,10 +12467,10 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>1</v>
@@ -12518,10 +12518,10 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>2</v>
@@ -12569,10 +12569,10 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>1</v>
@@ -12620,10 +12620,10 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>2</v>
@@ -12673,10 +12673,10 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>1</v>
@@ -12724,10 +12724,10 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>1</v>
@@ -12775,10 +12775,10 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>1</v>
@@ -12826,10 +12826,10 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>2</v>
@@ -12877,10 +12877,10 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>2</v>
@@ -12930,10 +12930,10 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>2</v>
@@ -12981,10 +12981,10 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>1</v>
@@ -13032,10 +13032,10 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>2</v>
@@ -13083,10 +13083,10 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>2</v>
@@ -13136,10 +13136,10 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>2</v>
@@ -13187,10 +13187,10 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>1</v>
@@ -13240,10 +13240,10 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>2</v>
@@ -13293,10 +13293,10 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>2</v>
@@ -13346,10 +13346,10 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>1</v>
@@ -13397,10 +13397,10 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>1</v>
@@ -13448,10 +13448,10 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>2</v>
@@ -13501,10 +13501,10 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>2</v>
@@ -13552,10 +13552,10 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>1</v>
@@ -13603,10 +13603,10 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>2</v>
@@ -13656,10 +13656,10 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>2</v>
@@ -13707,10 +13707,10 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>1</v>
@@ -13758,10 +13758,10 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>2</v>
@@ -13809,10 +13809,10 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>1</v>
@@ -13860,10 +13860,10 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>1</v>
@@ -13913,10 +13913,10 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>2</v>
@@ -13964,10 +13964,10 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>2</v>
@@ -14015,10 +14015,10 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>2</v>
@@ -14068,10 +14068,10 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>1</v>
@@ -14119,10 +14119,10 @@
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>2</v>
@@ -14170,10 +14170,10 @@
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>1</v>
@@ -14223,10 +14223,10 @@
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>1</v>
@@ -14276,10 +14276,10 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>1</v>
@@ -14327,10 +14327,10 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>2</v>
@@ -14378,10 +14378,10 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>1</v>
@@ -14431,10 +14431,10 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>1</v>
@@ -14482,7 +14482,7 @@
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B253" s="20" t="s">
         <v>54</v>
@@ -14515,7 +14515,7 @@
         <v>1</v>
       </c>
       <c r="L253" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M253" s="5">
         <v>0</v>
@@ -14533,10 +14533,10 @@
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>1</v>
@@ -14584,10 +14584,10 @@
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>1</v>
@@ -14637,10 +14637,10 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B256" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="B256" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="C256" s="17" t="s">
         <v>2</v>
@@ -14688,10 +14688,10 @@
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>2</v>
@@ -14739,10 +14739,10 @@
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>1</v>
@@ -14790,7 +14790,7 @@
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B259" s="20" t="s">
         <v>55</v>
@@ -14823,7 +14823,7 @@
         <v>1</v>
       </c>
       <c r="L259" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M259" s="5">
         <v>0</v>
@@ -14841,10 +14841,10 @@
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>1</v>
@@ -14894,10 +14894,10 @@
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>2</v>
@@ -14945,10 +14945,10 @@
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>2</v>
@@ -14998,10 +14998,10 @@
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>2</v>
@@ -15051,10 +15051,10 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>1</v>
@@ -15102,10 +15102,10 @@
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>1</v>
@@ -15153,10 +15153,10 @@
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>2</v>
@@ -15204,10 +15204,10 @@
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>1</v>
@@ -15257,10 +15257,10 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>1</v>
@@ -15308,10 +15308,10 @@
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>2</v>
@@ -15359,10 +15359,10 @@
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>1</v>
@@ -15412,10 +15412,10 @@
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>1</v>
@@ -15465,10 +15465,10 @@
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>1</v>
@@ -15516,7 +15516,7 @@
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B273" s="20" t="s">
         <v>56</v>
@@ -15549,7 +15549,7 @@
         <v>1</v>
       </c>
       <c r="L273" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M273" s="5">
         <v>0</v>
@@ -15567,10 +15567,10 @@
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>1</v>
@@ -15618,10 +15618,10 @@
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>2</v>
@@ -15669,10 +15669,10 @@
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>1</v>
@@ -15720,10 +15720,10 @@
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>2</v>
@@ -15773,10 +15773,10 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>2</v>
@@ -15824,10 +15824,10 @@
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>1</v>
@@ -15875,10 +15875,10 @@
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>2</v>
@@ -15928,10 +15928,10 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>2</v>
@@ -15981,10 +15981,10 @@
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>2</v>
@@ -16032,10 +16032,10 @@
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>1</v>
@@ -16083,10 +16083,10 @@
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>2</v>
@@ -16136,10 +16136,10 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>2</v>
@@ -16187,10 +16187,10 @@
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>2</v>
@@ -16238,10 +16238,10 @@
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>1</v>
@@ -16289,10 +16289,10 @@
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>1</v>
@@ -16342,10 +16342,10 @@
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>2</v>
@@ -16393,10 +16393,10 @@
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>1</v>
@@ -16446,10 +16446,10 @@
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>1</v>
@@ -16497,10 +16497,10 @@
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>1</v>
@@ -16550,10 +16550,10 @@
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>2</v>
@@ -16601,10 +16601,10 @@
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>1</v>
@@ -16652,10 +16652,10 @@
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>2</v>
@@ -16703,10 +16703,10 @@
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>2</v>
@@ -16756,10 +16756,10 @@
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>1</v>
@@ -16807,10 +16807,10 @@
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>1</v>
@@ -16858,10 +16858,10 @@
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>1</v>
@@ -16909,7 +16909,7 @@
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B300" s="20" t="s">
         <v>57</v>
@@ -16942,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="L300" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M300" s="10">
         <v>0</v>
@@ -16960,10 +16960,10 @@
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>1</v>
@@ -17011,10 +17011,10 @@
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>1</v>
@@ -17062,10 +17062,10 @@
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>2</v>
@@ -17113,10 +17113,10 @@
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>2</v>
@@ -17164,10 +17164,10 @@
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>2</v>
@@ -17215,10 +17215,10 @@
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>1</v>
@@ -17266,10 +17266,10 @@
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B307" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="B307" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="C307" s="17" t="s">
         <v>2</v>
@@ -17317,7 +17317,7 @@
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B308" s="20" t="s">
         <v>55</v>
@@ -17350,7 +17350,7 @@
         <v>1</v>
       </c>
       <c r="L308" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M308" s="14">
         <v>0</v>
@@ -17368,7 +17368,7 @@
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B309" s="20" t="s">
         <v>52</v>
@@ -17401,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="L309" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M309" s="8">
         <v>0</v>
@@ -17419,10 +17419,10 @@
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C310" s="10" t="s">
         <v>1</v>
@@ -17470,10 +17470,10 @@
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>1</v>
@@ -17523,10 +17523,10 @@
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C312" s="10" t="s">
         <v>1</v>
@@ -17574,10 +17574,10 @@
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>2</v>
@@ -17625,10 +17625,10 @@
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C314" s="10" t="s">
         <v>1</v>
@@ -17678,10 +17678,10 @@
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>1</v>
@@ -17729,10 +17729,10 @@
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C316" s="10" t="s">
         <v>2</v>
@@ -17780,10 +17780,10 @@
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>1</v>
@@ -17831,10 +17831,10 @@
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C318" s="10" t="s">
         <v>2</v>
@@ -17882,10 +17882,10 @@
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>2</v>
@@ -17933,10 +17933,10 @@
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C320" s="10" t="s">
         <v>2</v>
@@ -17986,10 +17986,10 @@
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>1</v>
@@ -18037,10 +18037,10 @@
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C322" s="10" t="s">
         <v>1</v>
@@ -18090,10 +18090,10 @@
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>2</v>
@@ -18141,10 +18141,10 @@
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C324" s="10" t="s">
         <v>1</v>
@@ -18194,10 +18194,10 @@
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>1</v>
@@ -18245,10 +18245,10 @@
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C326" s="10" t="s">
         <v>2</v>
@@ -18298,10 +18298,10 @@
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>2</v>
@@ -18349,10 +18349,10 @@
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C328" s="10" t="s">
         <v>1</v>
@@ -18400,10 +18400,10 @@
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>1</v>
@@ -18451,10 +18451,10 @@
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C330" s="10" t="s">
         <v>2</v>
@@ -18504,10 +18504,10 @@
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>2</v>
@@ -18555,10 +18555,10 @@
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C332" s="10" t="s">
         <v>2</v>
@@ -18608,10 +18608,10 @@
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>1</v>
@@ -18659,10 +18659,10 @@
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C334" s="10" t="s">
         <v>1</v>
@@ -18710,10 +18710,10 @@
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>2</v>
@@ -18761,10 +18761,10 @@
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C336" s="10" t="s">
         <v>2</v>
@@ -18812,10 +18812,10 @@
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>2</v>
@@ -18863,10 +18863,10 @@
     </row>
     <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C338" s="10" t="s">
         <v>1</v>
@@ -18914,10 +18914,10 @@
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>2</v>
@@ -18967,10 +18967,10 @@
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C340" s="10" t="s">
         <v>2</v>
@@ -19018,10 +19018,10 @@
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>2</v>
@@ -19069,10 +19069,10 @@
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C342" s="10" t="s">
         <v>1</v>
@@ -19120,10 +19120,10 @@
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>1</v>
@@ -19173,10 +19173,10 @@
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C344" s="10" t="s">
         <v>1</v>
@@ -19226,10 +19226,10 @@
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>2</v>
@@ -19277,10 +19277,10 @@
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C346" s="10" t="s">
         <v>2</v>
@@ -19330,10 +19330,10 @@
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>2</v>
@@ -19381,10 +19381,10 @@
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C348" s="10" t="s">
         <v>1</v>
@@ -19432,10 +19432,10 @@
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>1</v>
@@ -19485,10 +19485,10 @@
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C350" s="10" t="s">
         <v>1</v>
@@ -19536,10 +19536,10 @@
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>2</v>
@@ -19587,10 +19587,10 @@
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C352" s="10" t="s">
         <v>1</v>
@@ -19640,10 +19640,10 @@
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>1</v>
@@ -19691,10 +19691,10 @@
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C354" s="10" t="s">
         <v>2</v>
@@ -19742,10 +19742,10 @@
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>1</v>
@@ -19793,10 +19793,10 @@
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C356" s="10" t="s">
         <v>1</v>
@@ -19846,10 +19846,10 @@
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>2</v>
@@ -19897,10 +19897,10 @@
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B358" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="B358" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="C358" s="18" t="s">
         <v>2</v>
@@ -19948,10 +19948,10 @@
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>2</v>
@@ -20001,10 +20001,10 @@
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C360" s="10" t="s">
         <v>1</v>
@@ -20052,10 +20052,10 @@
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B361" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>1</v>
@@ -20103,10 +20103,10 @@
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C362" s="10" t="s">
         <v>1</v>
@@ -20156,10 +20156,10 @@
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>2</v>
@@ -20207,10 +20207,10 @@
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C364" s="10" t="s">
         <v>2</v>
@@ -20260,10 +20260,10 @@
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>1</v>
@@ -20311,10 +20311,10 @@
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C366" s="10" t="s">
         <v>2</v>
@@ -20362,10 +20362,10 @@
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>1</v>
@@ -20415,10 +20415,10 @@
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C368" s="10" t="s">
         <v>1</v>
@@ -20466,10 +20466,10 @@
     </row>
     <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>2</v>
@@ -20517,10 +20517,10 @@
     </row>
     <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C370" s="10" t="s">
         <v>1</v>
@@ -20570,10 +20570,10 @@
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>1</v>
@@ -20621,10 +20621,10 @@
     </row>
     <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C372" s="10" t="s">
         <v>1</v>
@@ -20672,10 +20672,10 @@
     </row>
     <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>2</v>
@@ -20723,10 +20723,10 @@
     </row>
     <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C374" s="10" t="s">
         <v>1</v>
@@ -20774,10 +20774,10 @@
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>2</v>
@@ -20827,10 +20827,10 @@
     </row>
     <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B376" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C376" s="10" t="s">
         <v>2</v>
@@ -20878,10 +20878,10 @@
     </row>
     <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B377" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>2</v>
@@ -20929,10 +20929,10 @@
     </row>
     <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B378" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C378" s="10" t="s">
         <v>1</v>
@@ -20982,10 +20982,10 @@
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>2</v>
@@ -21035,10 +21035,10 @@
     </row>
     <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B380" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C380" s="10" t="s">
         <v>2</v>
@@ -21086,10 +21086,10 @@
     </row>
     <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B381" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>1</v>
@@ -21137,10 +21137,10 @@
     </row>
     <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C382" s="10" t="s">
         <v>2</v>
@@ -21188,10 +21188,10 @@
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>2</v>
@@ -21239,10 +21239,10 @@
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C384" s="10" t="s">
         <v>1</v>
@@ -21290,10 +21290,10 @@
     </row>
     <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>2</v>
@@ -21343,10 +21343,10 @@
     </row>
     <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C386" s="10" t="s">
         <v>1</v>
@@ -21394,10 +21394,10 @@
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>1</v>
@@ -21447,10 +21447,10 @@
     </row>
     <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B388" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C388" s="10" t="s">
         <v>1</v>
@@ -21498,10 +21498,10 @@
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>2</v>
@@ -21549,10 +21549,10 @@
     </row>
     <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C390" s="10" t="s">
         <v>1</v>
@@ -21600,10 +21600,10 @@
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>1</v>
@@ -21653,10 +21653,10 @@
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B392" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C392" s="10" t="s">
         <v>2</v>
@@ -21704,10 +21704,10 @@
     </row>
     <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>2</v>
@@ -21755,10 +21755,10 @@
     </row>
     <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B394" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C394" s="10" t="s">
         <v>1</v>
@@ -21806,10 +21806,10 @@
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B395" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>2</v>
@@ -21859,10 +21859,10 @@
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B396" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C396" s="10" t="s">
         <v>1</v>
@@ -21912,10 +21912,10 @@
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B397" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>1</v>
@@ -21963,10 +21963,10 @@
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B398" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C398" s="10" t="s">
         <v>2</v>
@@ -22014,10 +22014,10 @@
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B399" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>1</v>
@@ -22065,10 +22065,10 @@
     </row>
     <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B400" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C400" s="10" t="s">
         <v>1</v>
@@ -22118,10 +22118,10 @@
     </row>
     <row r="401" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B401" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>2</v>
@@ -22169,7 +22169,7 @@
     </row>
     <row r="402" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A402" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B402" s="20" t="s">
         <v>56</v>
@@ -22202,7 +22202,7 @@
         <v>1</v>
       </c>
       <c r="L402" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M402" s="10">
         <v>0</v>
@@ -22220,10 +22220,10 @@
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B403" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>2</v>
@@ -22273,7 +22273,7 @@
     </row>
     <row r="404" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A404" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B404" s="20" t="s">
         <v>57</v>
@@ -22306,7 +22306,7 @@
         <v>1</v>
       </c>
       <c r="L404" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M404" s="10">
         <v>0</v>
@@ -22324,10 +22324,10 @@
     </row>
     <row r="405" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>2</v>
@@ -22377,10 +22377,10 @@
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B406" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C406" s="10" t="s">
         <v>2</v>
@@ -22430,10 +22430,10 @@
     </row>
     <row r="407" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B407" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>2</v>
@@ -22481,7 +22481,7 @@
     </row>
     <row r="408" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A408" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B408" s="20" t="s">
         <v>53</v>
@@ -22514,7 +22514,7 @@
         <v>1</v>
       </c>
       <c r="L408" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M408" s="10">
         <v>0</v>
@@ -22532,7 +22532,7 @@
     </row>
     <row r="409" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A409" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B409" s="20" t="s">
         <v>54</v>
@@ -22565,7 +22565,7 @@
         <v>1</v>
       </c>
       <c r="L409" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M409" s="8">
         <v>0</v>

--- a/repswitch_V1L3.xlsx
+++ b/repswitch_V1L3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F92A83-9C3D-40EA-931C-F9B4CEC69682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E024B42-8697-4CAE-9C06-8F42DDA50949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="600" windowWidth="12960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="11" r:id="rId1"/>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C2ECCB-B040-46D7-A336-9E9BECBBD065}">
   <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/repswitch_V1L3.xlsx
+++ b/repswitch_V1L3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E024B42-8697-4CAE-9C06-8F42DDA50949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC12864-F7AA-4C97-9121-4F2E028EF8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="600" windowWidth="12960" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="11" r:id="rId1"/>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C2ECCB-B040-46D7-A336-9E9BECBBD065}">
   <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M251" sqref="M251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
